--- a/mbs-perturbation/bottleneck/knn/bottleneck-knn-results.xlsx
+++ b/mbs-perturbation/bottleneck/knn/bottleneck-knn-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0851063829787234</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2105263157894737</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.38</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4840881272949816</v>
+        <v>0.8813953488372093</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4166666666666667</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3225806451612903</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6182374541003671</v>
+        <v>0.9924112607099145</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7272727272727273</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7102067183462533</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6089147286821706</v>
+        <v>0.9988372093023257</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3509043927648579</v>
+        <v>0.6330749354005168</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3458091553836234</v>
+        <v>0.8469135802469137</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2169590643274854</v>
+        <v>0.3929824561403509</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2491033808608892</v>
+        <v>0.3490341983992239</v>
       </c>
       <c r="E7" t="n">
-        <v>0.554470284237726</v>
+        <v>0.8955881952944378</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bottleneck/knn/bottleneck-knn-results.xlsx
+++ b/mbs-perturbation/bottleneck/knn/bottleneck-knn-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2345679012345679</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8813953488372093</v>
+        <v>0.4627851140456182</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.631578947368421</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9924112607099145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.9933634992458522</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9988372093023257</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6330749354005168</v>
+        <v>0.6446455505279035</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8469135802469137</v>
+        <v>0.6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3929824561403509</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3490341983992239</v>
+        <v>0.1621052631578948</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8955881952944378</v>
+        <v>0.8201588327638749</v>
       </c>
     </row>
   </sheetData>
